--- a/UM-H_countries.xlsx
+++ b/UM-H_countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/sdixit2_worldbank_org/Documents/Desktop/katherine_research/energy_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC104801A9DD59AE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76C34205-8581-4148-8976-106C3C6A5660}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_F25DC773A252ABDACC104801A9DD59AE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83057C4C-E3EC-4D4F-BE34-0043C9FDCE9E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="158">
   <si>
     <t>Aruba</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Note: These countries transitioned from middle income to high income between 1989 to 2000</t>
+  </si>
+  <si>
+    <t>Note: These countries were upper middle income countries between 2010 and 2021</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +548,16 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -576,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,9 +606,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -604,84 +621,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_cty99 2" xfId="1" xr:uid="{442373D0-E0D0-4479-B9A1-F29A60A36D56}"/>
   </cellStyles>
-  <dxfs count="134">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="128">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2494,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:M1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2506,10 +2453,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3033,72 +2980,78 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:F2 H2:N2">
-    <cfRule type="expression" dxfId="133" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="11" stopIfTrue="1">
       <formula>D2&lt;&gt;C2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:N3">
-    <cfRule type="expression" dxfId="132" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="10" stopIfTrue="1">
       <formula>D3&lt;&gt;C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:N4">
-    <cfRule type="expression" dxfId="131" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="9" stopIfTrue="1">
       <formula>D4&lt;&gt;C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5 G5:N5">
-    <cfRule type="expression" dxfId="130" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="8" stopIfTrue="1">
       <formula>D5&lt;&gt;C5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:M6">
-    <cfRule type="expression" dxfId="129" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
       <formula>D6&lt;&gt;C6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:N7">
-    <cfRule type="expression" dxfId="128" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
       <formula>D7&lt;&gt;C7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:N8">
-    <cfRule type="expression" dxfId="127" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="5" stopIfTrue="1">
       <formula>D8&lt;&gt;C8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:N9">
-    <cfRule type="expression" dxfId="126" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="4" stopIfTrue="1">
       <formula>D9&lt;&gt;C9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:N10">
-    <cfRule type="expression" dxfId="125" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
       <formula>D10&lt;&gt;C10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:N11">
-    <cfRule type="expression" dxfId="124" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
       <formula>D11&lt;&gt;C11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:N12">
-    <cfRule type="expression" dxfId="123" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1" stopIfTrue="1">
       <formula>D12&lt;&gt;C12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D95F2D6-76CB-4AF2-875A-6361DE88318B}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3107,13 +3060,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3151,2291 +3104,2296 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="J5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="9" t="s">
+      <c r="M5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="9" t="s">
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="9" t="s">
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="9" t="s">
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="9" t="s">
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="9" t="s">
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="9" t="s">
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="9" t="s">
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="10" t="s">
+      <c r="C21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="9" t="s">
+      <c r="C22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="C23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="9" t="s">
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="10" t="s">
+      <c r="C27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="9" t="s">
+      <c r="C28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="9" t="s">
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="9" t="s">
+      <c r="C30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="9" t="s">
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="9" t="s">
+      <c r="C32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" s="9" t="s">
+      <c r="C33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="9" t="s">
+      <c r="C34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" s="10" t="s">
+      <c r="C35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="9" t="s">
+      <c r="C36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="9" t="s">
+      <c r="C37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="9" t="s">
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="9" t="s">
+      <c r="C39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="9" t="s">
+      <c r="C40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="9" t="s">
+      <c r="C41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="9" t="s">
+      <c r="C42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" s="9" t="s">
+      <c r="C43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N44" s="9" t="s">
+      <c r="C44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="9" t="s">
+      <c r="C45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N46" s="9" t="s">
+      <c r="C46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="9" t="s">
+      <c r="C47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="9" t="s">
+      <c r="C48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="10" t="s">
+      <c r="C49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" s="9" t="s">
+      <c r="C50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="9" t="s">
+      <c r="C51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="10" t="s">
+      <c r="D52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="9" t="s">
+      <c r="C53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>17</v>
+      <c r="J53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
